--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value580.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value580.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160435914861456</v>
+        <v>1.115459442138672</v>
       </c>
       <c r="B1">
-        <v>2.015915511095787</v>
+        <v>2.033017873764038</v>
       </c>
       <c r="C1">
-        <v>2.161430314529471</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.494688948959764</v>
+        <v>2.171510696411133</v>
       </c>
       <c r="E1">
-        <v>1.030900065910497</v>
+        <v>1.105171918869019</v>
       </c>
     </row>
   </sheetData>
